--- a/code/java-web-demo/src/test/resources/Data_20170531.xlsx
+++ b/code/java-web-demo/src/test/resources/Data_20170531.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18240" windowHeight="7935" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18240" windowHeight="7935" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="T_Users" sheetId="14" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="PD" sheetId="2" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">PDRC_StaffManage!$A$1:$E$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">PDRC_StaffManage!$A$1:$E$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'RC'!$A$1:$E$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="174">
   <si>
     <t>员工号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -605,6 +605,21 @@
   </si>
   <si>
     <t>交付人员退出项目时间查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-28196</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴亮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈斌</t>
+  </si>
+  <si>
+    <t>B-22687</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1510,7 +1525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2817,10 +2832,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3045,19 +3060,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="C9" s="7">
-        <v>0.38</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>135</v>
@@ -3071,13 +3086,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="C10" s="7">
-        <v>0.44</v>
+        <v>1.38</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>76</v>
@@ -3097,13 +3112,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" s="7">
-        <v>1.25</v>
+        <v>0.38</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>76</v>
@@ -3123,13 +3138,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="7">
-        <v>0.99</v>
+        <v>0.44</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>76</v>
@@ -3149,13 +3164,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="7">
-        <v>0.48</v>
+        <v>1.25</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>76</v>
@@ -3175,19 +3190,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7">
-        <v>1.6</v>
+        <v>0.99</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>135</v>
@@ -3201,19 +3216,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C15" s="7">
-        <v>0.88</v>
+        <v>0.48</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>135</v>
@@ -3227,19 +3242,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C16" s="7">
-        <v>1.08</v>
+        <v>1.6</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>135</v>
@@ -3253,16 +3268,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="7">
-        <v>0.56000000000000005</v>
+        <v>0.88</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>81</v>
@@ -3279,16 +3294,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C18" s="7">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>79</v>
@@ -3305,19 +3320,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C19" s="7">
-        <v>1.28</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>135</v>
@@ -3331,19 +3346,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C20" s="7">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>135</v>
@@ -3356,20 +3371,20 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
+      <c r="A21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C21" s="7">
-        <v>1.96</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>33</v>
+        <v>1.28</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>135</v>
@@ -3382,20 +3397,20 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
+      <c r="A22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C22" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>34</v>
+        <v>0.96</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>135</v>
@@ -3409,19 +3424,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="7">
-        <v>0.64</v>
+        <v>1.96</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>135</v>
@@ -3435,19 +3450,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="7">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>135</v>
@@ -3461,19 +3476,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="7">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>135</v>
@@ -3487,19 +3502,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
-        <v>1.04</v>
+        <v>0.68</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>135</v>
@@ -3513,19 +3528,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="7">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>135</v>
@@ -3539,19 +3554,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="7">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>135</v>
@@ -3565,19 +3580,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="7">
-        <v>1.51</v>
+        <v>0.64</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>135</v>
@@ -3591,19 +3606,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>135</v>
@@ -3616,20 +3631,20 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>20</v>
+      <c r="A31" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
-        <v>0.56000000000000005</v>
+        <v>1.51</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>135</v>
@@ -3638,6 +3653,58 @@
         <v>42887</v>
       </c>
       <c r="H31" s="8">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="8">
+        <v>42887</v>
+      </c>
+      <c r="H32" s="8">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="8">
+        <v>42887</v>
+      </c>
+      <c r="H33" s="8">
         <v>42887</v>
       </c>
     </row>
